--- a/Extraction_PO_Data_IntoCSV/Data/Input/export.XLSX
+++ b/Extraction_PO_Data_IntoCSV/Data/Input/export.XLSX
@@ -11,23 +11,104 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="85">
+  <si>
+    <t>2600000164</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>SG77</t>
+  </si>
+  <si>
+    <t>9999903600</t>
+  </si>
+  <si>
+    <t>Hero King Ltd test</t>
+  </si>
+  <si>
+    <t>DIESEL 1BC BULK</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>S0903F004</t>
+  </si>
+  <si>
+    <t>SG77TPTNC</t>
+  </si>
+  <si>
+    <t>WANGLX</t>
+  </si>
+  <si>
+    <t>within 30 days Due net</t>
+  </si>
+  <si>
+    <t>4108090201</t>
+  </si>
+  <si>
+    <t>2600000165</t>
+  </si>
+  <si>
+    <t>MICHELLE</t>
+  </si>
+  <si>
+    <t>2600000166</t>
+  </si>
+  <si>
+    <t>2600000167</t>
+  </si>
+  <si>
+    <t>2600000168</t>
+  </si>
+  <si>
+    <t>2600000169</t>
+  </si>
+  <si>
+    <t>2600000170</t>
+  </si>
+  <si>
+    <t>2600000171</t>
+  </si>
+  <si>
+    <t>DIESEL 15 TEM CRE BOILER</t>
+  </si>
+  <si>
+    <t>UNT</t>
+  </si>
+  <si>
+    <t>2600000172</t>
+  </si>
+  <si>
+    <t>SG88</t>
+  </si>
+  <si>
+    <t>DIESEL 15 TEM CRE LOOSE</t>
+  </si>
+  <si>
+    <t>SG88DHUBC</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
   <si>
     <t>2600000173</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>NB</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>SG77</t>
-  </si>
-  <si>
     <t>8888000203</t>
   </si>
   <si>
@@ -37,24 +118,15 @@
     <t>test for trainning</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>EA</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>S0101P001</t>
   </si>
   <si>
     <t>SG77TPTNA</t>
   </si>
   <si>
-    <t>WANGLX</t>
-  </si>
-  <si>
     <t>Payable immediately Due net</t>
   </si>
   <si>
@@ -82,28 +154,16 @@
     <t>2600000174</t>
   </si>
   <si>
-    <t>9999903600</t>
-  </si>
-  <si>
-    <t>Hero King Ltd test</t>
-  </si>
-  <si>
     <t>LENOVO</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>UNT</t>
-  </si>
-  <si>
     <t>S1001P002</t>
   </si>
   <si>
     <t>WANGTAO</t>
-  </si>
-  <si>
-    <t>within 30 days Due net</t>
   </si>
   <si>
     <t>Purchasing Document Number</t>
@@ -315,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -331,7 +391,7 @@
     <col min="6" max="6" bestFit="1" width="7" customWidth="1"/>
     <col min="7" max="7" bestFit="1" width="15" customWidth="1"/>
     <col min="8" max="8" bestFit="1" width="37" customWidth="1"/>
-    <col min="9" max="9" bestFit="1" width="20" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="26" customWidth="1"/>
     <col min="10" max="10" bestFit="1" width="16" customWidth="1"/>
     <col min="11" max="11" bestFit="1" width="16" customWidth="1"/>
     <col min="12" max="12" bestFit="1" width="10" customWidth="1"/>
@@ -348,7 +408,7 @@
     <col min="23" max="23" bestFit="1" width="19" customWidth="1"/>
     <col min="24" max="24" bestFit="1" width="12" customWidth="1"/>
     <col min="25" max="25" bestFit="1" width="13" customWidth="1"/>
-    <col min="26" max="26" bestFit="1" width="9" customWidth="1"/>
+    <col min="26" max="26" bestFit="1" width="10" customWidth="1"/>
     <col min="27" max="27" bestFit="1" width="18" customWidth="1"/>
     <col min="28" max="28" bestFit="1" width="8" customWidth="1"/>
     <col min="29" max="29" bestFit="1" width="18" customWidth="1"/>
@@ -361,106 +421,106 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:34">
@@ -477,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>45207</v>
+        <v>45126</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -498,40 +558,40 @@
         <v>8</v>
       </c>
       <c r="L2" s="3">
-        <v>12.000</v>
+        <v>1.000</v>
       </c>
       <c r="M2" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="4">
-        <v>12.00</v>
+        <v>260.00</v>
       </c>
       <c r="O2" t="s">
         <v>10</v>
       </c>
       <c r="P2" s="4">
-        <v>144.00</v>
+        <v>260.00</v>
       </c>
       <c r="Q2" s="4">
         <v>0.00</v>
       </c>
       <c r="R2" s="4">
-        <v>144.00</v>
+        <v>260.00</v>
       </c>
       <c r="S2" t="s">
         <v>3</v>
       </c>
       <c r="T2" s="3">
-        <v>0.000</v>
+        <v>1.000</v>
       </c>
       <c r="U2" s="4">
-        <v>0.00</v>
+        <v>260.00</v>
       </c>
       <c r="V2" s="3">
-        <v>0.000</v>
+        <v>1.000</v>
       </c>
       <c r="W2" s="4">
-        <v>0.00</v>
+        <v>260.00</v>
       </c>
       <c r="X2" t="s">
         <v>11</v>
@@ -549,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="AC2" s="2">
-        <v>45241</v>
+        <v>45125</v>
       </c>
       <c r="AD2" t="s">
         <v>3</v>
@@ -569,10 +629,10 @@
     </row>
     <row r="3" spans="1:34">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -581,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="2">
-        <v>45207</v>
+        <v>45126</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
@@ -593,58 +653,58 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="L3" s="3">
-        <v>10.000</v>
+        <v>1.000</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="N3" s="4">
-        <v>4000.00</v>
+        <v>260.00</v>
       </c>
       <c r="O3" t="s">
         <v>10</v>
       </c>
       <c r="P3" s="4">
-        <v>40000.00</v>
+        <v>260.00</v>
       </c>
       <c r="Q3" s="4">
         <v>0.00</v>
       </c>
       <c r="R3" s="4">
-        <v>40000.00</v>
+        <v>260.00</v>
       </c>
       <c r="S3" t="s">
         <v>3</v>
       </c>
       <c r="T3" s="3">
-        <v>10.000</v>
+        <v>1.000</v>
       </c>
       <c r="U3" s="4">
-        <v>40000.00</v>
+        <v>260.00</v>
       </c>
       <c r="V3" s="3">
-        <v>10.000</v>
+        <v>1.000</v>
       </c>
       <c r="W3" s="4">
-        <v>40000.00</v>
+        <v>260.00</v>
       </c>
       <c r="X3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="s">
         <v>3</v>
@@ -653,7 +713,7 @@
         <v>3</v>
       </c>
       <c r="AC3" s="2">
-        <v>45210</v>
+        <v>45125</v>
       </c>
       <c r="AD3" t="s">
         <v>3</v>
@@ -668,12 +728,12 @@
         <v>3</v>
       </c>
       <c r="AH3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:34">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -685,94 +745,1030 @@
         <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>45233</v>
+        <v>45126</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J4" t="s">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="L4" s="3">
-        <v>10.000</v>
+        <v>1.000</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="N4" s="4">
-        <v>10.00</v>
+        <v>260.00</v>
       </c>
       <c r="O4" t="s">
         <v>10</v>
       </c>
       <c r="P4" s="4">
-        <v>100.00</v>
+        <v>260.00</v>
       </c>
       <c r="Q4" s="4">
         <v>0.00</v>
       </c>
       <c r="R4" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="U4" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="W4" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="X4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>45125</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45126</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="M5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="O5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="R5" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="S5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="U5" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="W5" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="X5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>45125</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45126</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="O6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="R6" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="S6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="U6" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="W6" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="X6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>45125</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45126</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="O7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="R7" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="U7" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="W7" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="X7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>45125</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45126</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="M8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="O8" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="R8" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="S8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="U8" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="W8" s="4">
+        <v>260.00</v>
+      </c>
+      <c r="X8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>45125</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45152</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="4">
+        <v>10.00</v>
+      </c>
+      <c r="O9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="4">
+        <v>10.00</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="R9" s="4">
+        <v>10.00</v>
+      </c>
+      <c r="S9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="U9" s="4">
+        <v>10.00</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="W9" s="4">
+        <v>10.00</v>
+      </c>
+      <c r="X9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>45152</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45153</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="M10" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1295.00</v>
+      </c>
+      <c r="O10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1295.00</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1295.00</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="U10" s="4">
+        <v>1295.00</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="W10" s="4">
+        <v>1295.00</v>
+      </c>
+      <c r="X10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>45153</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45207</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="3">
+        <v>12.000</v>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="4">
+        <v>12.00</v>
+      </c>
+      <c r="O11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="4">
+        <v>144.00</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="R11" s="4">
+        <v>144.00</v>
+      </c>
+      <c r="S11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="X11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>45241</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45207</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="3">
+        <v>10.000</v>
+      </c>
+      <c r="M12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="4">
+        <v>4000.00</v>
+      </c>
+      <c r="O12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="4">
+        <v>40000.00</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="R12" s="4">
+        <v>40000.00</v>
+      </c>
+      <c r="S12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3">
+        <v>10.000</v>
+      </c>
+      <c r="U12" s="4">
+        <v>40000.00</v>
+      </c>
+      <c r="V12" s="3">
+        <v>10.000</v>
+      </c>
+      <c r="W12" s="4">
+        <v>40000.00</v>
+      </c>
+      <c r="X12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>45210</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45233</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" s="3">
+        <v>10.000</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="4">
+        <v>10.00</v>
+      </c>
+      <c r="O13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="4">
         <v>100.00</v>
       </c>
-      <c r="S4" t="s">
-        <v>3</v>
-      </c>
-      <c r="T4" s="3">
+      <c r="Q13" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="R13" s="4">
+        <v>100.00</v>
+      </c>
+      <c r="S13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13" s="3">
         <v>10.000</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U13" s="4">
         <v>100.00</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V13" s="3">
         <v>10.000</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W13" s="4">
         <v>100.00</v>
       </c>
-      <c r="X4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC4" s="2">
+      <c r="X13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="2">
         <v>45233</v>
       </c>
-      <c r="AD4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>21</v>
+      <c r="AD13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Extraction_PO_Data_IntoCSV/Data/Input/export.XLSX
+++ b/Extraction_PO_Data_IntoCSV/Data/Input/export.XLSX
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="316">
   <si>
     <t>4662000010</t>
   </si>
@@ -623,6 +623,240 @@
   </si>
   <si>
     <t>5202020500</t>
+  </si>
+  <si>
+    <t>4662000046</t>
+  </si>
+  <si>
+    <t>1000152008</t>
+  </si>
+  <si>
+    <t>TENG LEE GREEN PACK PTE LTD</t>
+  </si>
+  <si>
+    <t>MIXED HARDWOOD PALLET WITH HT</t>
+  </si>
+  <si>
+    <t>4662000047</t>
+  </si>
+  <si>
+    <t>4662000048</t>
+  </si>
+  <si>
+    <t>4662000049</t>
+  </si>
+  <si>
+    <t>4662000050</t>
+  </si>
+  <si>
+    <t>4662000051</t>
+  </si>
+  <si>
+    <t>4662000052</t>
+  </si>
+  <si>
+    <t>1000156050</t>
+  </si>
+  <si>
+    <t>GRONINGER ASIA PTE LTD</t>
+  </si>
+  <si>
+    <t>S1901C013</t>
+  </si>
+  <si>
+    <t>SOFTSTARTER SIEMENS 3RW3046 (45KW/400V-</t>
+  </si>
+  <si>
+    <t>RM_CTD</t>
+  </si>
+  <si>
+    <t>5002130102</t>
+  </si>
+  <si>
+    <t>FREIGHT CHARGES (NETHERLANDS TO</t>
+  </si>
+  <si>
+    <t>4662000053</t>
+  </si>
+  <si>
+    <t>SGP2</t>
+  </si>
+  <si>
+    <t>S0101P001</t>
+  </si>
+  <si>
+    <t>TOWING</t>
+  </si>
+  <si>
+    <t>5202021700</t>
+  </si>
+  <si>
+    <t>4662000054</t>
+  </si>
+  <si>
+    <t>RECIRCUITING FOR LIGHT CIRCUIT FOR L6</t>
+  </si>
+  <si>
+    <t>4662000055</t>
+  </si>
+  <si>
+    <t>WOODEN DUNNAGE 1.5INCH X1.5INCH X18INCH</t>
+  </si>
+  <si>
+    <t>WOODEN CHOKE 4 INCH X 5 INCH X 7 INCH</t>
+  </si>
+  <si>
+    <t>4662000056</t>
+  </si>
+  <si>
+    <t>1000325049</t>
+  </si>
+  <si>
+    <t>ES-TEAM LIGHTING PTE LTD</t>
+  </si>
+  <si>
+    <t>COMET LED HIGHBAY 60W 90° 6000K</t>
+  </si>
+  <si>
+    <t>4662000057</t>
+  </si>
+  <si>
+    <t>1000295459</t>
+  </si>
+  <si>
+    <t>OLIV TRADING &amp; SERVICES</t>
+  </si>
+  <si>
+    <t>S0103E002</t>
+  </si>
+  <si>
+    <t>SIEMENS/IO MODULE</t>
+  </si>
+  <si>
+    <t>KONE_DH</t>
+  </si>
+  <si>
+    <t>4662000060</t>
+  </si>
+  <si>
+    <t>1000152094</t>
+  </si>
+  <si>
+    <t>MECPEC TRADING CO PTE LTD</t>
+  </si>
+  <si>
+    <t>S0111T005</t>
+  </si>
+  <si>
+    <t>WDF WD2020 295/80R22.5 152/149M 18PR TL</t>
+  </si>
+  <si>
+    <t>T_TJ</t>
+  </si>
+  <si>
+    <t>5202022101</t>
+  </si>
+  <si>
+    <t>4662000061</t>
+  </si>
+  <si>
+    <t>4662000062</t>
+  </si>
+  <si>
+    <t>TRUCK</t>
+  </si>
+  <si>
+    <t>VR_TJ/WH (A)</t>
+  </si>
+  <si>
+    <t>4662000063</t>
+  </si>
+  <si>
+    <t>4662000064</t>
+  </si>
+  <si>
+    <t>4662000065</t>
+  </si>
+  <si>
+    <t>1000152276</t>
+  </si>
+  <si>
+    <t>ORCHARD FLORIST PTE LTD</t>
+  </si>
+  <si>
+    <t>S01150000</t>
+  </si>
+  <si>
+    <t>TESTING LINE1</t>
+  </si>
+  <si>
+    <t>5202023500</t>
+  </si>
+  <si>
+    <t>S01170000</t>
+  </si>
+  <si>
+    <t>TESTING LINE2</t>
+  </si>
+  <si>
+    <t>S0107T005</t>
+  </si>
+  <si>
+    <t>TESTING LINE3</t>
+  </si>
+  <si>
+    <t>4662000066</t>
+  </si>
+  <si>
+    <t>JOB 1</t>
+  </si>
+  <si>
+    <t>SG79ZZZZA</t>
+  </si>
+  <si>
+    <t>JOB 2</t>
+  </si>
+  <si>
+    <t>JOB 3</t>
+  </si>
+  <si>
+    <t>JOB 4</t>
+  </si>
+  <si>
+    <t>4662000067</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>4662000068</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>4662000072</t>
+  </si>
+  <si>
+    <t>TPT CHRG ON SITE (ON DUTY)</t>
   </si>
   <si>
     <t>Purchasing Document Number</t>
@@ -834,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AH50"/>
+  <dimension ref="A1:AH85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -859,7 +1093,7 @@
     <col min="15" max="15" bestFit="1" width="12" customWidth="1"/>
     <col min="16" max="16" bestFit="1" width="6" customWidth="1"/>
     <col min="17" max="17" bestFit="1" width="18" customWidth="1"/>
-    <col min="18" max="18" bestFit="1" width="6" customWidth="1"/>
+    <col min="18" max="18" bestFit="1" width="7" customWidth="1"/>
     <col min="19" max="19" bestFit="1" width="17" customWidth="1"/>
     <col min="20" max="20" bestFit="1" width="7" customWidth="1"/>
     <col min="21" max="21" bestFit="1" width="17" customWidth="1"/>
@@ -869,7 +1103,7 @@
     <col min="25" max="25" bestFit="1" width="13" customWidth="1"/>
     <col min="26" max="26" bestFit="1" width="10" customWidth="1"/>
     <col min="27" max="27" bestFit="1" width="18" customWidth="1"/>
-    <col min="28" max="28" bestFit="1" width="12" customWidth="1"/>
+    <col min="28" max="28" bestFit="1" width="14" customWidth="1"/>
     <col min="29" max="29" bestFit="1" width="18" customWidth="1"/>
     <col min="30" max="30" bestFit="1" width="21" customWidth="1"/>
     <col min="31" max="31" bestFit="1" width="10" customWidth="1"/>
@@ -880,106 +1114,106 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="5" t="s">
-        <v>204</v>
+        <v>282</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>283</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>210</v>
+        <v>288</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>219</v>
+        <v>297</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>220</v>
+        <v>298</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>221</v>
+        <v>299</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>223</v>
+        <v>301</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>224</v>
+        <v>302</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>225</v>
+        <v>303</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>226</v>
+        <v>304</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>230</v>
+        <v>308</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>232</v>
+        <v>310</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>234</v>
+        <v>312</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>236</v>
+        <v>314</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:34">
@@ -1668,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="U8" s="3">
-        <v>0.500</v>
+        <v>0.000</v>
       </c>
       <c r="V8" s="4">
         <v>0.00</v>
@@ -1980,10 +2214,10 @@
         <v>4</v>
       </c>
       <c r="U11" s="3">
-        <v>20.000</v>
+        <v>0.000</v>
       </c>
       <c r="V11" s="4">
-        <v>720.00</v>
+        <v>0.00</v>
       </c>
       <c r="W11" s="3">
         <v>20.000</v>
@@ -2084,10 +2318,10 @@
         <v>4</v>
       </c>
       <c r="U12" s="3">
-        <v>1.000</v>
+        <v>0.000</v>
       </c>
       <c r="V12" s="4">
-        <v>18.00</v>
+        <v>0.00</v>
       </c>
       <c r="W12" s="3">
         <v>1.000</v>
@@ -2188,10 +2422,10 @@
         <v>4</v>
       </c>
       <c r="U13" s="3">
-        <v>1.000</v>
+        <v>0.000</v>
       </c>
       <c r="V13" s="4">
-        <v>600.00</v>
+        <v>0.00</v>
       </c>
       <c r="W13" s="3">
         <v>1.000</v>
@@ -2292,10 +2526,10 @@
         <v>4</v>
       </c>
       <c r="U14" s="3">
-        <v>1.000</v>
+        <v>0.000</v>
       </c>
       <c r="V14" s="4">
-        <v>150.00</v>
+        <v>0.00</v>
       </c>
       <c r="W14" s="3">
         <v>1.000</v>
@@ -2396,10 +2630,10 @@
         <v>4</v>
       </c>
       <c r="U15" s="3">
-        <v>1.000</v>
+        <v>0.000</v>
       </c>
       <c r="V15" s="4">
-        <v>432.00</v>
+        <v>0.00</v>
       </c>
       <c r="W15" s="3">
         <v>1.000</v>
@@ -2500,10 +2734,10 @@
         <v>4</v>
       </c>
       <c r="U16" s="3">
-        <v>1.000</v>
+        <v>0.000</v>
       </c>
       <c r="V16" s="4">
-        <v>150.00</v>
+        <v>0.00</v>
       </c>
       <c r="W16" s="3">
         <v>1.000</v>
@@ -2604,10 +2838,10 @@
         <v>4</v>
       </c>
       <c r="U17" s="3">
-        <v>1.000</v>
+        <v>0.000</v>
       </c>
       <c r="V17" s="4">
-        <v>360.00</v>
+        <v>0.00</v>
       </c>
       <c r="W17" s="3">
         <v>1.000</v>
@@ -2708,10 +2942,10 @@
         <v>4</v>
       </c>
       <c r="U18" s="3">
-        <v>1.000</v>
+        <v>0.000</v>
       </c>
       <c r="V18" s="4">
-        <v>245.00</v>
+        <v>0.00</v>
       </c>
       <c r="W18" s="3">
         <v>1.000</v>
@@ -2812,10 +3046,10 @@
         <v>4</v>
       </c>
       <c r="U19" s="3">
-        <v>1.000</v>
+        <v>0.000</v>
       </c>
       <c r="V19" s="4">
-        <v>600.00</v>
+        <v>0.00</v>
       </c>
       <c r="W19" s="3">
         <v>1.000</v>
@@ -2916,10 +3150,10 @@
         <v>4</v>
       </c>
       <c r="U20" s="3">
-        <v>2.000</v>
+        <v>0.000</v>
       </c>
       <c r="V20" s="4">
-        <v>630.00</v>
+        <v>0.00</v>
       </c>
       <c r="W20" s="3">
         <v>2.000</v>
@@ -3020,10 +3254,10 @@
         <v>4</v>
       </c>
       <c r="U21" s="3">
-        <v>2.000</v>
+        <v>0.000</v>
       </c>
       <c r="V21" s="4">
-        <v>250.00</v>
+        <v>0.00</v>
       </c>
       <c r="W21" s="3">
         <v>2.000</v>
@@ -3124,10 +3358,10 @@
         <v>4</v>
       </c>
       <c r="U22" s="3">
-        <v>0.314</v>
+        <v>0.000</v>
       </c>
       <c r="V22" s="4">
-        <v>408.20</v>
+        <v>0.00</v>
       </c>
       <c r="W22" s="3">
         <v>0.314</v>
@@ -3228,10 +3462,10 @@
         <v>4</v>
       </c>
       <c r="U23" s="3">
-        <v>0.486</v>
+        <v>0.000</v>
       </c>
       <c r="V23" s="4">
-        <v>631.80</v>
+        <v>0.00</v>
       </c>
       <c r="W23" s="3">
         <v>0.486</v>
@@ -3332,10 +3566,10 @@
         <v>4</v>
       </c>
       <c r="U24" s="3">
-        <v>1.000</v>
+        <v>0.000</v>
       </c>
       <c r="V24" s="4">
-        <v>1300.00</v>
+        <v>0.00</v>
       </c>
       <c r="W24" s="3">
         <v>1.000</v>
@@ -3436,10 +3670,10 @@
         <v>4</v>
       </c>
       <c r="U25" s="3">
-        <v>1.000</v>
+        <v>0.000</v>
       </c>
       <c r="V25" s="4">
-        <v>350.00</v>
+        <v>0.00</v>
       </c>
       <c r="W25" s="3">
         <v>1.000</v>
@@ -3540,10 +3774,10 @@
         <v>4</v>
       </c>
       <c r="U26" s="3">
-        <v>2.000</v>
+        <v>0.000</v>
       </c>
       <c r="V26" s="4">
-        <v>560.00</v>
+        <v>0.00</v>
       </c>
       <c r="W26" s="3">
         <v>2.000</v>
@@ -3644,10 +3878,10 @@
         <v>4</v>
       </c>
       <c r="U27" s="3">
-        <v>1.000</v>
+        <v>0.000</v>
       </c>
       <c r="V27" s="4">
-        <v>150.00</v>
+        <v>0.00</v>
       </c>
       <c r="W27" s="3">
         <v>1.000</v>
@@ -3748,10 +3982,10 @@
         <v>4</v>
       </c>
       <c r="U28" s="3">
-        <v>1.000</v>
+        <v>0.000</v>
       </c>
       <c r="V28" s="4">
-        <v>800.00</v>
+        <v>0.00</v>
       </c>
       <c r="W28" s="3">
         <v>1.000</v>
@@ -3852,10 +4086,10 @@
         <v>4</v>
       </c>
       <c r="U29" s="3">
-        <v>1.000</v>
+        <v>0.000</v>
       </c>
       <c r="V29" s="4">
-        <v>350.00</v>
+        <v>0.00</v>
       </c>
       <c r="W29" s="3">
         <v>1.000</v>
@@ -3956,10 +4190,10 @@
         <v>4</v>
       </c>
       <c r="U30" s="3">
-        <v>1.000</v>
+        <v>0.000</v>
       </c>
       <c r="V30" s="4">
-        <v>350.00</v>
+        <v>0.00</v>
       </c>
       <c r="W30" s="3">
         <v>1.000</v>
@@ -4060,10 +4294,10 @@
         <v>4</v>
       </c>
       <c r="U31" s="3">
-        <v>1.000</v>
+        <v>0.000</v>
       </c>
       <c r="V31" s="4">
-        <v>350.00</v>
+        <v>0.00</v>
       </c>
       <c r="W31" s="3">
         <v>1.000</v>
@@ -4164,10 +4398,10 @@
         <v>4</v>
       </c>
       <c r="U32" s="3">
-        <v>1.500</v>
+        <v>0.000</v>
       </c>
       <c r="V32" s="4">
-        <v>1852.50</v>
+        <v>0.00</v>
       </c>
       <c r="W32" s="3">
         <v>1.500</v>
@@ -4268,10 +4502,10 @@
         <v>4</v>
       </c>
       <c r="U33" s="3">
-        <v>0.480</v>
+        <v>0.000</v>
       </c>
       <c r="V33" s="4">
-        <v>598.56</v>
+        <v>0.00</v>
       </c>
       <c r="W33" s="3">
         <v>0.480</v>
@@ -4372,10 +4606,10 @@
         <v>4</v>
       </c>
       <c r="U34" s="3">
-        <v>0.330</v>
+        <v>0.000</v>
       </c>
       <c r="V34" s="4">
-        <v>407.55</v>
+        <v>0.00</v>
       </c>
       <c r="W34" s="3">
         <v>0.330</v>
@@ -4476,10 +4710,10 @@
         <v>4</v>
       </c>
       <c r="U35" s="3">
-        <v>0.270</v>
+        <v>0.000</v>
       </c>
       <c r="V35" s="4">
-        <v>333.45</v>
+        <v>0.00</v>
       </c>
       <c r="W35" s="3">
         <v>0.270</v>
@@ -4580,10 +4814,10 @@
         <v>4</v>
       </c>
       <c r="U36" s="3">
-        <v>24.000</v>
+        <v>0.000</v>
       </c>
       <c r="V36" s="4">
-        <v>28560.00</v>
+        <v>0.00</v>
       </c>
       <c r="W36" s="3">
         <v>24.000</v>
@@ -4684,10 +4918,10 @@
         <v>4</v>
       </c>
       <c r="U37" s="3">
-        <v>60.000</v>
+        <v>0.000</v>
       </c>
       <c r="V37" s="4">
-        <v>3570.00</v>
+        <v>0.00</v>
       </c>
       <c r="W37" s="3">
         <v>60.000</v>
@@ -4788,10 +5022,10 @@
         <v>4</v>
       </c>
       <c r="U38" s="3">
-        <v>980.000</v>
+        <v>0.000</v>
       </c>
       <c r="V38" s="4">
-        <v>28420.00</v>
+        <v>0.00</v>
       </c>
       <c r="W38" s="3">
         <v>980.000</v>
@@ -4892,10 +5126,10 @@
         <v>4</v>
       </c>
       <c r="U39" s="3">
-        <v>700.000</v>
+        <v>0.000</v>
       </c>
       <c r="V39" s="4">
-        <v>700.00</v>
+        <v>0.00</v>
       </c>
       <c r="W39" s="3">
         <v>700.000</v>
@@ -4996,10 +5230,10 @@
         <v>4</v>
       </c>
       <c r="U40" s="3">
-        <v>400.000</v>
+        <v>0.000</v>
       </c>
       <c r="V40" s="4">
-        <v>4200.00</v>
+        <v>0.00</v>
       </c>
       <c r="W40" s="3">
         <v>400.000</v>
@@ -5106,10 +5340,10 @@
         <v>0.00</v>
       </c>
       <c r="W41" s="3">
-        <v>5.000</v>
+        <v>0.000</v>
       </c>
       <c r="X41" s="4">
-        <v>55.00</v>
+        <v>0.00</v>
       </c>
       <c r="Y41" t="s">
         <v>23</v>
@@ -5210,10 +5444,10 @@
         <v>0.00</v>
       </c>
       <c r="W42" s="3">
-        <v>5.000</v>
+        <v>0.000</v>
       </c>
       <c r="X42" s="4">
-        <v>500.00</v>
+        <v>0.00</v>
       </c>
       <c r="Y42" t="s">
         <v>23</v>
@@ -5522,10 +5756,10 @@
         <v>0.00</v>
       </c>
       <c r="W45" s="3">
-        <v>15.000</v>
+        <v>0.000</v>
       </c>
       <c r="X45" s="4">
-        <v>18510.00</v>
+        <v>0.00</v>
       </c>
       <c r="Y45" t="s">
         <v>62</v>
@@ -5938,10 +6172,10 @@
         <v>0.00</v>
       </c>
       <c r="W49" s="3">
-        <v>6.000</v>
+        <v>0.000</v>
       </c>
       <c r="X49" s="4">
-        <v>7500.00</v>
+        <v>0.00</v>
       </c>
       <c r="Y49" t="s">
         <v>83</v>
@@ -6042,10 +6276,10 @@
         <v>0.00</v>
       </c>
       <c r="W50" s="3">
-        <v>33.000</v>
+        <v>0.000</v>
       </c>
       <c r="X50" s="4">
-        <v>2574.00</v>
+        <v>0.00</v>
       </c>
       <c r="Y50" t="s">
         <v>83</v>
@@ -6076,6 +6310,3646 @@
       </c>
       <c r="AH50" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34">
+      <c r="A51" t="s">
+        <v>204</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2">
+        <v>45274</v>
+      </c>
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>205</v>
+      </c>
+      <c r="H51" t="s">
+        <v>206</v>
+      </c>
+      <c r="I51" t="s">
+        <v>146</v>
+      </c>
+      <c r="J51" t="s">
+        <v>207</v>
+      </c>
+      <c r="K51" t="s">
+        <v>4</v>
+      </c>
+      <c r="L51" t="s">
+        <v>9</v>
+      </c>
+      <c r="M51" s="3">
+        <v>2100.000</v>
+      </c>
+      <c r="N51" t="s">
+        <v>148</v>
+      </c>
+      <c r="O51" s="4">
+        <v>28.50</v>
+      </c>
+      <c r="P51" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q51" s="4">
+        <v>59850.00</v>
+      </c>
+      <c r="R51" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S51" s="4">
+        <v>59850.00</v>
+      </c>
+      <c r="T51" t="s">
+        <v>4</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V51" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W51" s="3">
+        <v>2100.000</v>
+      </c>
+      <c r="X51" s="4">
+        <v>59850.00</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>45274</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34">
+      <c r="A52" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2">
+        <v>45274</v>
+      </c>
+      <c r="E52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>205</v>
+      </c>
+      <c r="H52" t="s">
+        <v>206</v>
+      </c>
+      <c r="I52" t="s">
+        <v>146</v>
+      </c>
+      <c r="J52" t="s">
+        <v>207</v>
+      </c>
+      <c r="K52" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" t="s">
+        <v>9</v>
+      </c>
+      <c r="M52" s="3">
+        <v>700.000</v>
+      </c>
+      <c r="N52" t="s">
+        <v>148</v>
+      </c>
+      <c r="O52" s="4">
+        <v>27.50</v>
+      </c>
+      <c r="P52" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>19250.00</v>
+      </c>
+      <c r="R52" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S52" s="4">
+        <v>19250.00</v>
+      </c>
+      <c r="T52" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V52" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W52" s="3">
+        <v>700.000</v>
+      </c>
+      <c r="X52" s="4">
+        <v>19250.00</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC52" s="2">
+        <v>45274</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34">
+      <c r="A53" t="s">
+        <v>209</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2">
+        <v>45274</v>
+      </c>
+      <c r="E53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>205</v>
+      </c>
+      <c r="H53" t="s">
+        <v>206</v>
+      </c>
+      <c r="I53" t="s">
+        <v>146</v>
+      </c>
+      <c r="J53" t="s">
+        <v>207</v>
+      </c>
+      <c r="K53" t="s">
+        <v>4</v>
+      </c>
+      <c r="L53" t="s">
+        <v>9</v>
+      </c>
+      <c r="M53" s="3">
+        <v>1120.000</v>
+      </c>
+      <c r="N53" t="s">
+        <v>148</v>
+      </c>
+      <c r="O53" s="4">
+        <v>27.50</v>
+      </c>
+      <c r="P53" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>30800.00</v>
+      </c>
+      <c r="R53" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S53" s="4">
+        <v>30800.00</v>
+      </c>
+      <c r="T53" t="s">
+        <v>4</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V53" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W53" s="3">
+        <v>1120.000</v>
+      </c>
+      <c r="X53" s="4">
+        <v>30800.00</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>45274</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34">
+      <c r="A54" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2">
+        <v>45274</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>205</v>
+      </c>
+      <c r="H54" t="s">
+        <v>206</v>
+      </c>
+      <c r="I54" t="s">
+        <v>146</v>
+      </c>
+      <c r="J54" t="s">
+        <v>207</v>
+      </c>
+      <c r="K54" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" t="s">
+        <v>9</v>
+      </c>
+      <c r="M54" s="3">
+        <v>1120.000</v>
+      </c>
+      <c r="N54" t="s">
+        <v>148</v>
+      </c>
+      <c r="O54" s="4">
+        <v>27.50</v>
+      </c>
+      <c r="P54" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>30800.00</v>
+      </c>
+      <c r="R54" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S54" s="4">
+        <v>30800.00</v>
+      </c>
+      <c r="T54" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V54" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W54" s="3">
+        <v>1120.000</v>
+      </c>
+      <c r="X54" s="4">
+        <v>30800.00</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC54" s="2">
+        <v>45274</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34">
+      <c r="A55" t="s">
+        <v>211</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2">
+        <v>45274</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>205</v>
+      </c>
+      <c r="H55" t="s">
+        <v>206</v>
+      </c>
+      <c r="I55" t="s">
+        <v>146</v>
+      </c>
+      <c r="J55" t="s">
+        <v>207</v>
+      </c>
+      <c r="K55" t="s">
+        <v>4</v>
+      </c>
+      <c r="L55" t="s">
+        <v>9</v>
+      </c>
+      <c r="M55" s="3">
+        <v>1120.000</v>
+      </c>
+      <c r="N55" t="s">
+        <v>148</v>
+      </c>
+      <c r="O55" s="4">
+        <v>27.50</v>
+      </c>
+      <c r="P55" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>30800.00</v>
+      </c>
+      <c r="R55" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S55" s="4">
+        <v>30800.00</v>
+      </c>
+      <c r="T55" t="s">
+        <v>4</v>
+      </c>
+      <c r="U55" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V55" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W55" s="3">
+        <v>1120.000</v>
+      </c>
+      <c r="X55" s="4">
+        <v>30800.00</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC55" s="2">
+        <v>45274</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34">
+      <c r="A56" t="s">
+        <v>212</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2">
+        <v>45274</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>205</v>
+      </c>
+      <c r="H56" t="s">
+        <v>206</v>
+      </c>
+      <c r="I56" t="s">
+        <v>146</v>
+      </c>
+      <c r="J56" t="s">
+        <v>207</v>
+      </c>
+      <c r="K56" t="s">
+        <v>4</v>
+      </c>
+      <c r="L56" t="s">
+        <v>9</v>
+      </c>
+      <c r="M56" s="3">
+        <v>1120.000</v>
+      </c>
+      <c r="N56" t="s">
+        <v>148</v>
+      </c>
+      <c r="O56" s="4">
+        <v>27.50</v>
+      </c>
+      <c r="P56" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q56" s="4">
+        <v>30800.00</v>
+      </c>
+      <c r="R56" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S56" s="4">
+        <v>30800.00</v>
+      </c>
+      <c r="T56" t="s">
+        <v>4</v>
+      </c>
+      <c r="U56" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V56" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W56" s="3">
+        <v>1120.000</v>
+      </c>
+      <c r="X56" s="4">
+        <v>30800.00</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC56" s="2">
+        <v>45274</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34">
+      <c r="A57" t="s">
+        <v>213</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2">
+        <v>45274</v>
+      </c>
+      <c r="E57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>214</v>
+      </c>
+      <c r="H57" t="s">
+        <v>215</v>
+      </c>
+      <c r="I57" t="s">
+        <v>216</v>
+      </c>
+      <c r="J57" t="s">
+        <v>217</v>
+      </c>
+      <c r="K57" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" t="s">
+        <v>9</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="N57" t="s">
+        <v>22</v>
+      </c>
+      <c r="O57" s="4">
+        <v>980.00</v>
+      </c>
+      <c r="P57" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>980.00</v>
+      </c>
+      <c r="R57" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S57" s="4">
+        <v>980.00</v>
+      </c>
+      <c r="T57" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V57" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W57" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="X57" s="4">
+        <v>980.00</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC57" s="2">
+        <v>45274</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34">
+      <c r="A58" t="s">
+        <v>213</v>
+      </c>
+      <c r="B58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2">
+        <v>45274</v>
+      </c>
+      <c r="E58" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>214</v>
+      </c>
+      <c r="H58" t="s">
+        <v>215</v>
+      </c>
+      <c r="I58" t="s">
+        <v>216</v>
+      </c>
+      <c r="J58" t="s">
+        <v>220</v>
+      </c>
+      <c r="K58" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" t="s">
+        <v>9</v>
+      </c>
+      <c r="M58" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="N58" t="s">
+        <v>22</v>
+      </c>
+      <c r="O58" s="4">
+        <v>125.00</v>
+      </c>
+      <c r="P58" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q58" s="4">
+        <v>125.00</v>
+      </c>
+      <c r="R58" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S58" s="4">
+        <v>125.00</v>
+      </c>
+      <c r="T58" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V58" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W58" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="X58" s="4">
+        <v>125.00</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC58" s="2">
+        <v>45274</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34">
+      <c r="A59" t="s">
+        <v>221</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" s="2">
+        <v>45274</v>
+      </c>
+      <c r="E59" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>164</v>
+      </c>
+      <c r="H59" t="s">
+        <v>165</v>
+      </c>
+      <c r="I59" t="s">
+        <v>223</v>
+      </c>
+      <c r="J59" t="s">
+        <v>224</v>
+      </c>
+      <c r="K59" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" t="s">
+        <v>9</v>
+      </c>
+      <c r="M59" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="N59" t="s">
+        <v>22</v>
+      </c>
+      <c r="O59" s="4">
+        <v>50.00</v>
+      </c>
+      <c r="P59" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q59" s="4">
+        <v>50.00</v>
+      </c>
+      <c r="R59" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S59" s="4">
+        <v>50.00</v>
+      </c>
+      <c r="T59" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V59" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W59" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="X59" s="4">
+        <v>50.00</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC59" s="2">
+        <v>45274</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34">
+      <c r="A60" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2">
+        <v>45274</v>
+      </c>
+      <c r="E60" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>102</v>
+      </c>
+      <c r="H60" t="s">
+        <v>103</v>
+      </c>
+      <c r="I60" t="s">
+        <v>81</v>
+      </c>
+      <c r="J60" t="s">
+        <v>227</v>
+      </c>
+      <c r="K60" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" t="s">
+        <v>9</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="N60" t="s">
+        <v>22</v>
+      </c>
+      <c r="O60" s="4">
+        <v>700.00</v>
+      </c>
+      <c r="P60" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q60" s="4">
+        <v>700.00</v>
+      </c>
+      <c r="R60" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S60" s="4">
+        <v>700.00</v>
+      </c>
+      <c r="T60" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V60" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W60" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="X60" s="4">
+        <v>700.00</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC60" s="2">
+        <v>45274</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34">
+      <c r="A61" t="s">
+        <v>228</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2">
+        <v>45274</v>
+      </c>
+      <c r="E61" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>152</v>
+      </c>
+      <c r="H61" t="s">
+        <v>153</v>
+      </c>
+      <c r="I61" t="s">
+        <v>154</v>
+      </c>
+      <c r="J61" t="s">
+        <v>229</v>
+      </c>
+      <c r="K61" t="s">
+        <v>4</v>
+      </c>
+      <c r="L61" t="s">
+        <v>9</v>
+      </c>
+      <c r="M61" s="3">
+        <v>500.000</v>
+      </c>
+      <c r="N61" t="s">
+        <v>148</v>
+      </c>
+      <c r="O61" s="4">
+        <v>1.00</v>
+      </c>
+      <c r="P61" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>500.00</v>
+      </c>
+      <c r="R61" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S61" s="4">
+        <v>500.00</v>
+      </c>
+      <c r="T61" t="s">
+        <v>4</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V61" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W61" s="3">
+        <v>500.000</v>
+      </c>
+      <c r="X61" s="4">
+        <v>500.00</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC61" s="2">
+        <v>45274</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34">
+      <c r="A62" t="s">
+        <v>228</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2">
+        <v>45274</v>
+      </c>
+      <c r="E62" t="s">
+        <v>151</v>
+      </c>
+      <c r="F62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>152</v>
+      </c>
+      <c r="H62" t="s">
+        <v>153</v>
+      </c>
+      <c r="I62" t="s">
+        <v>154</v>
+      </c>
+      <c r="J62" t="s">
+        <v>230</v>
+      </c>
+      <c r="K62" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" t="s">
+        <v>9</v>
+      </c>
+      <c r="M62" s="3">
+        <v>300.000</v>
+      </c>
+      <c r="N62" t="s">
+        <v>148</v>
+      </c>
+      <c r="O62" s="4">
+        <v>3.30</v>
+      </c>
+      <c r="P62" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>990.00</v>
+      </c>
+      <c r="R62" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S62" s="4">
+        <v>990.00</v>
+      </c>
+      <c r="T62" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V62" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W62" s="3">
+        <v>300.000</v>
+      </c>
+      <c r="X62" s="4">
+        <v>990.00</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC62" s="2">
+        <v>45274</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34">
+      <c r="A63" t="s">
+        <v>231</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2">
+        <v>45274</v>
+      </c>
+      <c r="E63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>232</v>
+      </c>
+      <c r="H63" t="s">
+        <v>233</v>
+      </c>
+      <c r="I63" t="s">
+        <v>81</v>
+      </c>
+      <c r="J63" t="s">
+        <v>234</v>
+      </c>
+      <c r="K63" t="s">
+        <v>4</v>
+      </c>
+      <c r="L63" t="s">
+        <v>9</v>
+      </c>
+      <c r="M63" s="3">
+        <v>26.000</v>
+      </c>
+      <c r="N63" t="s">
+        <v>22</v>
+      </c>
+      <c r="O63" s="4">
+        <v>105.00</v>
+      </c>
+      <c r="P63" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>2730.00</v>
+      </c>
+      <c r="R63" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S63" s="4">
+        <v>2730.00</v>
+      </c>
+      <c r="T63" t="s">
+        <v>4</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V63" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W63" s="3">
+        <v>26.000</v>
+      </c>
+      <c r="X63" s="4">
+        <v>2730.00</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC63" s="2">
+        <v>45274</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34">
+      <c r="A64" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="2">
+        <v>45274</v>
+      </c>
+      <c r="E64" t="s">
+        <v>125</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>236</v>
+      </c>
+      <c r="H64" t="s">
+        <v>237</v>
+      </c>
+      <c r="I64" t="s">
+        <v>238</v>
+      </c>
+      <c r="J64" t="s">
+        <v>239</v>
+      </c>
+      <c r="K64" t="s">
+        <v>4</v>
+      </c>
+      <c r="L64" t="s">
+        <v>9</v>
+      </c>
+      <c r="M64" s="3">
+        <v>2.000</v>
+      </c>
+      <c r="N64" t="s">
+        <v>22</v>
+      </c>
+      <c r="O64" s="4">
+        <v>200.00</v>
+      </c>
+      <c r="P64" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>400.00</v>
+      </c>
+      <c r="R64" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S64" s="4">
+        <v>400.00</v>
+      </c>
+      <c r="T64" t="s">
+        <v>4</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V64" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W64" s="3">
+        <v>2.000</v>
+      </c>
+      <c r="X64" s="4">
+        <v>400.00</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC64" s="2">
+        <v>45274</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34">
+      <c r="A65" t="s">
+        <v>241</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2">
+        <v>45279</v>
+      </c>
+      <c r="E65" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>242</v>
+      </c>
+      <c r="H65" t="s">
+        <v>243</v>
+      </c>
+      <c r="I65" t="s">
+        <v>244</v>
+      </c>
+      <c r="J65" t="s">
+        <v>245</v>
+      </c>
+      <c r="K65" t="s">
+        <v>4</v>
+      </c>
+      <c r="L65" t="s">
+        <v>9</v>
+      </c>
+      <c r="M65" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="N65" t="s">
+        <v>22</v>
+      </c>
+      <c r="O65" s="4">
+        <v>40.00</v>
+      </c>
+      <c r="P65" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q65" s="4">
+        <v>40.00</v>
+      </c>
+      <c r="R65" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S65" s="4">
+        <v>40.00</v>
+      </c>
+      <c r="T65" t="s">
+        <v>4</v>
+      </c>
+      <c r="U65" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="V65" s="4">
+        <v>40.00</v>
+      </c>
+      <c r="W65" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="X65" s="4">
+        <v>40.00</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC65" s="2">
+        <v>45279</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34">
+      <c r="A66" t="s">
+        <v>248</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2">
+        <v>45279</v>
+      </c>
+      <c r="E66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" t="s">
+        <v>242</v>
+      </c>
+      <c r="H66" t="s">
+        <v>243</v>
+      </c>
+      <c r="I66" t="s">
+        <v>244</v>
+      </c>
+      <c r="J66" t="s">
+        <v>245</v>
+      </c>
+      <c r="K66" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" t="s">
+        <v>9</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="N66" t="s">
+        <v>22</v>
+      </c>
+      <c r="O66" s="4">
+        <v>10.00</v>
+      </c>
+      <c r="P66" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q66" s="4">
+        <v>10.00</v>
+      </c>
+      <c r="R66" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S66" s="4">
+        <v>10.00</v>
+      </c>
+      <c r="T66" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="V66" s="4">
+        <v>10.00</v>
+      </c>
+      <c r="W66" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="X66" s="4">
+        <v>10.00</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC66" s="2">
+        <v>45279</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34">
+      <c r="A67" t="s">
+        <v>249</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2">
+        <v>45279</v>
+      </c>
+      <c r="E67" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>164</v>
+      </c>
+      <c r="H67" t="s">
+        <v>165</v>
+      </c>
+      <c r="I67" t="s">
+        <v>223</v>
+      </c>
+      <c r="J67" t="s">
+        <v>250</v>
+      </c>
+      <c r="K67" t="s">
+        <v>4</v>
+      </c>
+      <c r="L67" t="s">
+        <v>9</v>
+      </c>
+      <c r="M67" s="3">
+        <v>50.000</v>
+      </c>
+      <c r="N67" t="s">
+        <v>22</v>
+      </c>
+      <c r="O67" s="4">
+        <v>300.00</v>
+      </c>
+      <c r="P67" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q67" s="4">
+        <v>15000.00</v>
+      </c>
+      <c r="R67" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S67" s="4">
+        <v>15000.00</v>
+      </c>
+      <c r="T67" t="s">
+        <v>4</v>
+      </c>
+      <c r="U67" s="3">
+        <v>50.000</v>
+      </c>
+      <c r="V67" s="4">
+        <v>15000.00</v>
+      </c>
+      <c r="W67" s="3">
+        <v>50.000</v>
+      </c>
+      <c r="X67" s="4">
+        <v>15000.00</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>251</v>
+      </c>
+      <c r="AC67" s="2">
+        <v>45279</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34">
+      <c r="A68" t="s">
+        <v>252</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2">
+        <v>45279</v>
+      </c>
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>164</v>
+      </c>
+      <c r="H68" t="s">
+        <v>165</v>
+      </c>
+      <c r="I68" t="s">
+        <v>94</v>
+      </c>
+      <c r="J68" t="s">
+        <v>126</v>
+      </c>
+      <c r="K68" t="s">
+        <v>4</v>
+      </c>
+      <c r="L68" t="s">
+        <v>9</v>
+      </c>
+      <c r="M68" s="3">
+        <v>300.000</v>
+      </c>
+      <c r="N68" t="s">
+        <v>22</v>
+      </c>
+      <c r="O68" s="4">
+        <v>1.50</v>
+      </c>
+      <c r="P68" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>450.00</v>
+      </c>
+      <c r="R68" s="4">
+        <v>36.00</v>
+      </c>
+      <c r="S68" s="4">
+        <v>486.00</v>
+      </c>
+      <c r="T68" t="s">
+        <v>4</v>
+      </c>
+      <c r="U68" s="3">
+        <v>300.000</v>
+      </c>
+      <c r="V68" s="4">
+        <v>450.00</v>
+      </c>
+      <c r="W68" s="3">
+        <v>300.000</v>
+      </c>
+      <c r="X68" s="4">
+        <v>450.00</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC68" s="2">
+        <v>45279</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34">
+      <c r="A69" t="s">
+        <v>253</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2">
+        <v>45279</v>
+      </c>
+      <c r="E69" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" t="s">
+        <v>164</v>
+      </c>
+      <c r="H69" t="s">
+        <v>165</v>
+      </c>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+      <c r="J69" t="s">
+        <v>126</v>
+      </c>
+      <c r="K69" t="s">
+        <v>4</v>
+      </c>
+      <c r="L69" t="s">
+        <v>9</v>
+      </c>
+      <c r="M69" s="3">
+        <v>50.000</v>
+      </c>
+      <c r="N69" t="s">
+        <v>22</v>
+      </c>
+      <c r="O69" s="4">
+        <v>10.00</v>
+      </c>
+      <c r="P69" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>500.00</v>
+      </c>
+      <c r="R69" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S69" s="4">
+        <v>500.00</v>
+      </c>
+      <c r="T69" t="s">
+        <v>4</v>
+      </c>
+      <c r="U69" s="3">
+        <v>50.000</v>
+      </c>
+      <c r="V69" s="4">
+        <v>500.00</v>
+      </c>
+      <c r="W69" s="3">
+        <v>50.000</v>
+      </c>
+      <c r="X69" s="4">
+        <v>500.00</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC69" s="2">
+        <v>45279</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34">
+      <c r="A70" t="s">
+        <v>254</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2">
+        <v>45281</v>
+      </c>
+      <c r="E70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" t="s">
+        <v>255</v>
+      </c>
+      <c r="H70" t="s">
+        <v>256</v>
+      </c>
+      <c r="I70" t="s">
+        <v>257</v>
+      </c>
+      <c r="J70" t="s">
+        <v>258</v>
+      </c>
+      <c r="K70" t="s">
+        <v>4</v>
+      </c>
+      <c r="L70" t="s">
+        <v>9</v>
+      </c>
+      <c r="M70" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="N70" t="s">
+        <v>22</v>
+      </c>
+      <c r="O70" s="4">
+        <v>30.00</v>
+      </c>
+      <c r="P70" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q70" s="4">
+        <v>30.00</v>
+      </c>
+      <c r="R70" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S70" s="4">
+        <v>30.00</v>
+      </c>
+      <c r="T70" t="s">
+        <v>4</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V70" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W70" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="X70" s="4">
+        <v>30.00</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC70" s="2">
+        <v>45281</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34">
+      <c r="A71" t="s">
+        <v>254</v>
+      </c>
+      <c r="B71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="2">
+        <v>45281</v>
+      </c>
+      <c r="E71" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>255</v>
+      </c>
+      <c r="H71" t="s">
+        <v>256</v>
+      </c>
+      <c r="I71" t="s">
+        <v>260</v>
+      </c>
+      <c r="J71" t="s">
+        <v>261</v>
+      </c>
+      <c r="K71" t="s">
+        <v>4</v>
+      </c>
+      <c r="L71" t="s">
+        <v>9</v>
+      </c>
+      <c r="M71" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="N71" t="s">
+        <v>22</v>
+      </c>
+      <c r="O71" s="4">
+        <v>30.00</v>
+      </c>
+      <c r="P71" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>30.00</v>
+      </c>
+      <c r="R71" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S71" s="4">
+        <v>30.00</v>
+      </c>
+      <c r="T71" t="s">
+        <v>4</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V71" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W71" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="X71" s="4">
+        <v>30.00</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC71" s="2">
+        <v>45281</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34">
+      <c r="A72" t="s">
+        <v>254</v>
+      </c>
+      <c r="B72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="2">
+        <v>45281</v>
+      </c>
+      <c r="E72" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
+        <v>255</v>
+      </c>
+      <c r="H72" t="s">
+        <v>256</v>
+      </c>
+      <c r="I72" t="s">
+        <v>262</v>
+      </c>
+      <c r="J72" t="s">
+        <v>263</v>
+      </c>
+      <c r="K72" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" t="s">
+        <v>9</v>
+      </c>
+      <c r="M72" s="3">
+        <v>10.000</v>
+      </c>
+      <c r="N72" t="s">
+        <v>22</v>
+      </c>
+      <c r="O72" s="4">
+        <v>30.00</v>
+      </c>
+      <c r="P72" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>300.00</v>
+      </c>
+      <c r="R72" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S72" s="4">
+        <v>300.00</v>
+      </c>
+      <c r="T72" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V72" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W72" s="3">
+        <v>10.000</v>
+      </c>
+      <c r="X72" s="4">
+        <v>300.00</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC72" s="2">
+        <v>45281</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE72" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34">
+      <c r="A73" t="s">
+        <v>264</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="2">
+        <v>45281</v>
+      </c>
+      <c r="E73" t="s">
+        <v>151</v>
+      </c>
+      <c r="F73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" t="s">
+        <v>102</v>
+      </c>
+      <c r="H73" t="s">
+        <v>103</v>
+      </c>
+      <c r="I73" t="s">
+        <v>244</v>
+      </c>
+      <c r="J73" t="s">
+        <v>265</v>
+      </c>
+      <c r="K73" t="s">
+        <v>4</v>
+      </c>
+      <c r="L73" t="s">
+        <v>9</v>
+      </c>
+      <c r="M73" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="N73" t="s">
+        <v>22</v>
+      </c>
+      <c r="O73" s="4">
+        <v>60.00</v>
+      </c>
+      <c r="P73" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>60.00</v>
+      </c>
+      <c r="R73" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S73" s="4">
+        <v>60.00</v>
+      </c>
+      <c r="T73" t="s">
+        <v>4</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V73" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="X73" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC73" s="2">
+        <v>45281</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34">
+      <c r="A74" t="s">
+        <v>264</v>
+      </c>
+      <c r="B74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="2">
+        <v>45281</v>
+      </c>
+      <c r="E74" t="s">
+        <v>151</v>
+      </c>
+      <c r="F74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" t="s">
+        <v>102</v>
+      </c>
+      <c r="H74" t="s">
+        <v>103</v>
+      </c>
+      <c r="I74" t="s">
+        <v>244</v>
+      </c>
+      <c r="J74" t="s">
+        <v>267</v>
+      </c>
+      <c r="K74" t="s">
+        <v>4</v>
+      </c>
+      <c r="L74" t="s">
+        <v>9</v>
+      </c>
+      <c r="M74" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="N74" t="s">
+        <v>22</v>
+      </c>
+      <c r="O74" s="4">
+        <v>60.00</v>
+      </c>
+      <c r="P74" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>60.00</v>
+      </c>
+      <c r="R74" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S74" s="4">
+        <v>60.00</v>
+      </c>
+      <c r="T74" t="s">
+        <v>4</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V74" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="X74" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC74" s="2">
+        <v>45281</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG74" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34">
+      <c r="A75" t="s">
+        <v>264</v>
+      </c>
+      <c r="B75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="2">
+        <v>45281</v>
+      </c>
+      <c r="E75" t="s">
+        <v>151</v>
+      </c>
+      <c r="F75" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" t="s">
+        <v>102</v>
+      </c>
+      <c r="H75" t="s">
+        <v>103</v>
+      </c>
+      <c r="I75" t="s">
+        <v>244</v>
+      </c>
+      <c r="J75" t="s">
+        <v>268</v>
+      </c>
+      <c r="K75" t="s">
+        <v>4</v>
+      </c>
+      <c r="L75" t="s">
+        <v>9</v>
+      </c>
+      <c r="M75" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="N75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O75" s="4">
+        <v>60.00</v>
+      </c>
+      <c r="P75" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>60.00</v>
+      </c>
+      <c r="R75" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S75" s="4">
+        <v>60.00</v>
+      </c>
+      <c r="T75" t="s">
+        <v>4</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V75" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="X75" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC75" s="2">
+        <v>45281</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG75" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34">
+      <c r="A76" t="s">
+        <v>264</v>
+      </c>
+      <c r="B76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="2">
+        <v>45281</v>
+      </c>
+      <c r="E76" t="s">
+        <v>151</v>
+      </c>
+      <c r="F76" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" t="s">
+        <v>102</v>
+      </c>
+      <c r="H76" t="s">
+        <v>103</v>
+      </c>
+      <c r="I76" t="s">
+        <v>244</v>
+      </c>
+      <c r="J76" t="s">
+        <v>269</v>
+      </c>
+      <c r="K76" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" t="s">
+        <v>9</v>
+      </c>
+      <c r="M76" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="N76" t="s">
+        <v>22</v>
+      </c>
+      <c r="O76" s="4">
+        <v>180.00</v>
+      </c>
+      <c r="P76" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q76" s="4">
+        <v>180.00</v>
+      </c>
+      <c r="R76" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S76" s="4">
+        <v>180.00</v>
+      </c>
+      <c r="T76" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V76" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W76" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="X76" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC76" s="2">
+        <v>45281</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34">
+      <c r="A77" t="s">
+        <v>270</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2">
+        <v>45281</v>
+      </c>
+      <c r="E77" t="s">
+        <v>125</v>
+      </c>
+      <c r="F77" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" t="s">
+        <v>164</v>
+      </c>
+      <c r="H77" t="s">
+        <v>165</v>
+      </c>
+      <c r="I77" t="s">
+        <v>121</v>
+      </c>
+      <c r="J77" t="s">
+        <v>271</v>
+      </c>
+      <c r="K77" t="s">
+        <v>4</v>
+      </c>
+      <c r="L77" t="s">
+        <v>9</v>
+      </c>
+      <c r="M77" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="N77" t="s">
+        <v>22</v>
+      </c>
+      <c r="O77" s="4">
+        <v>20.00</v>
+      </c>
+      <c r="P77" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q77" s="4">
+        <v>20.00</v>
+      </c>
+      <c r="R77" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S77" s="4">
+        <v>20.00</v>
+      </c>
+      <c r="T77" t="s">
+        <v>4</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V77" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="X77" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC77" s="2">
+        <v>45281</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG77" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34">
+      <c r="A78" t="s">
+        <v>270</v>
+      </c>
+      <c r="B78" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2">
+        <v>45281</v>
+      </c>
+      <c r="E78" t="s">
+        <v>125</v>
+      </c>
+      <c r="F78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>164</v>
+      </c>
+      <c r="H78" t="s">
+        <v>165</v>
+      </c>
+      <c r="I78" t="s">
+        <v>121</v>
+      </c>
+      <c r="J78" t="s">
+        <v>272</v>
+      </c>
+      <c r="K78" t="s">
+        <v>4</v>
+      </c>
+      <c r="L78" t="s">
+        <v>9</v>
+      </c>
+      <c r="M78" s="3">
+        <v>3.000</v>
+      </c>
+      <c r="N78" t="s">
+        <v>22</v>
+      </c>
+      <c r="O78" s="4">
+        <v>30.00</v>
+      </c>
+      <c r="P78" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q78" s="4">
+        <v>90.00</v>
+      </c>
+      <c r="R78" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S78" s="4">
+        <v>90.00</v>
+      </c>
+      <c r="T78" t="s">
+        <v>4</v>
+      </c>
+      <c r="U78" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V78" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W78" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="X78" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC78" s="2">
+        <v>45281</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34">
+      <c r="A79" t="s">
+        <v>270</v>
+      </c>
+      <c r="B79" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2">
+        <v>45281</v>
+      </c>
+      <c r="E79" t="s">
+        <v>125</v>
+      </c>
+      <c r="F79" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" t="s">
+        <v>164</v>
+      </c>
+      <c r="H79" t="s">
+        <v>165</v>
+      </c>
+      <c r="I79" t="s">
+        <v>121</v>
+      </c>
+      <c r="J79" t="s">
+        <v>273</v>
+      </c>
+      <c r="K79" t="s">
+        <v>4</v>
+      </c>
+      <c r="L79" t="s">
+        <v>9</v>
+      </c>
+      <c r="M79" s="3">
+        <v>2.000</v>
+      </c>
+      <c r="N79" t="s">
+        <v>22</v>
+      </c>
+      <c r="O79" s="4">
+        <v>40.00</v>
+      </c>
+      <c r="P79" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q79" s="4">
+        <v>80.00</v>
+      </c>
+      <c r="R79" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S79" s="4">
+        <v>80.00</v>
+      </c>
+      <c r="T79" t="s">
+        <v>4</v>
+      </c>
+      <c r="U79" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V79" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W79" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="X79" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC79" s="2">
+        <v>45281</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE79" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG79" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34">
+      <c r="A80" t="s">
+        <v>270</v>
+      </c>
+      <c r="B80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="2">
+        <v>45281</v>
+      </c>
+      <c r="E80" t="s">
+        <v>125</v>
+      </c>
+      <c r="F80" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>164</v>
+      </c>
+      <c r="H80" t="s">
+        <v>165</v>
+      </c>
+      <c r="I80" t="s">
+        <v>121</v>
+      </c>
+      <c r="J80" t="s">
+        <v>274</v>
+      </c>
+      <c r="K80" t="s">
+        <v>4</v>
+      </c>
+      <c r="L80" t="s">
+        <v>9</v>
+      </c>
+      <c r="M80" s="3">
+        <v>5.000</v>
+      </c>
+      <c r="N80" t="s">
+        <v>22</v>
+      </c>
+      <c r="O80" s="4">
+        <v>174.00</v>
+      </c>
+      <c r="P80" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q80" s="4">
+        <v>870.00</v>
+      </c>
+      <c r="R80" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S80" s="4">
+        <v>870.00</v>
+      </c>
+      <c r="T80" t="s">
+        <v>4</v>
+      </c>
+      <c r="U80" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V80" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W80" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="X80" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC80" s="2">
+        <v>45281</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF80" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG80" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34">
+      <c r="A81" t="s">
+        <v>275</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2">
+        <v>45281</v>
+      </c>
+      <c r="E81" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" t="s">
+        <v>130</v>
+      </c>
+      <c r="H81" t="s">
+        <v>131</v>
+      </c>
+      <c r="I81" t="s">
+        <v>94</v>
+      </c>
+      <c r="J81" t="s">
+        <v>276</v>
+      </c>
+      <c r="K81" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" t="s">
+        <v>9</v>
+      </c>
+      <c r="M81" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="N81" t="s">
+        <v>22</v>
+      </c>
+      <c r="O81" s="4">
+        <v>66.00</v>
+      </c>
+      <c r="P81" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q81" s="4">
+        <v>66.00</v>
+      </c>
+      <c r="R81" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S81" s="4">
+        <v>66.00</v>
+      </c>
+      <c r="T81" t="s">
+        <v>4</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V81" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W81" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="X81" s="4">
+        <v>66.00</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC81" s="2">
+        <v>45281</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF81" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34">
+      <c r="A82" t="s">
+        <v>275</v>
+      </c>
+      <c r="B82" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2">
+        <v>45281</v>
+      </c>
+      <c r="E82" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>130</v>
+      </c>
+      <c r="H82" t="s">
+        <v>131</v>
+      </c>
+      <c r="I82" t="s">
+        <v>94</v>
+      </c>
+      <c r="J82" t="s">
+        <v>277</v>
+      </c>
+      <c r="K82" t="s">
+        <v>4</v>
+      </c>
+      <c r="L82" t="s">
+        <v>9</v>
+      </c>
+      <c r="M82" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="N82" t="s">
+        <v>22</v>
+      </c>
+      <c r="O82" s="4">
+        <v>77.00</v>
+      </c>
+      <c r="P82" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>77.00</v>
+      </c>
+      <c r="R82" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S82" s="4">
+        <v>77.00</v>
+      </c>
+      <c r="T82" t="s">
+        <v>4</v>
+      </c>
+      <c r="U82" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V82" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W82" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="X82" s="4">
+        <v>77.00</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC82" s="2">
+        <v>45281</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE82" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF82" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG82" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34">
+      <c r="A83" t="s">
+        <v>275</v>
+      </c>
+      <c r="B83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2">
+        <v>45281</v>
+      </c>
+      <c r="E83" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>130</v>
+      </c>
+      <c r="H83" t="s">
+        <v>131</v>
+      </c>
+      <c r="I83" t="s">
+        <v>94</v>
+      </c>
+      <c r="J83" t="s">
+        <v>278</v>
+      </c>
+      <c r="K83" t="s">
+        <v>4</v>
+      </c>
+      <c r="L83" t="s">
+        <v>9</v>
+      </c>
+      <c r="M83" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="N83" t="s">
+        <v>22</v>
+      </c>
+      <c r="O83" s="4">
+        <v>88.00</v>
+      </c>
+      <c r="P83" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>88.00</v>
+      </c>
+      <c r="R83" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S83" s="4">
+        <v>88.00</v>
+      </c>
+      <c r="T83" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V83" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W83" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="X83" s="4">
+        <v>88.00</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC83" s="2">
+        <v>45281</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34">
+      <c r="A84" t="s">
+        <v>275</v>
+      </c>
+      <c r="B84" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2">
+        <v>45281</v>
+      </c>
+      <c r="E84" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>130</v>
+      </c>
+      <c r="H84" t="s">
+        <v>131</v>
+      </c>
+      <c r="I84" t="s">
+        <v>94</v>
+      </c>
+      <c r="J84" t="s">
+        <v>279</v>
+      </c>
+      <c r="K84" t="s">
+        <v>4</v>
+      </c>
+      <c r="L84" t="s">
+        <v>9</v>
+      </c>
+      <c r="M84" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="N84" t="s">
+        <v>22</v>
+      </c>
+      <c r="O84" s="4">
+        <v>99.00</v>
+      </c>
+      <c r="P84" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q84" s="4">
+        <v>99.00</v>
+      </c>
+      <c r="R84" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="S84" s="4">
+        <v>99.00</v>
+      </c>
+      <c r="T84" t="s">
+        <v>4</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0.000</v>
+      </c>
+      <c r="V84" s="4">
+        <v>0.00</v>
+      </c>
+      <c r="W84" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="X84" s="4">
+        <v>99.00</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC84" s="2">
+        <v>45281</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34">
+      <c r="A85" t="s">
+        <v>280</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2">
+        <v>45282</v>
+      </c>
+      <c r="E85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>242</v>
+      </c>
+      <c r="H85" t="s">
+        <v>243</v>
+      </c>
+      <c r="I85" t="s">
+        <v>223</v>
+      </c>
+      <c r="J85" t="s">
+        <v>281</v>
+      </c>
+      <c r="K85" t="s">
+        <v>4</v>
+      </c>
+      <c r="L85" t="s">
+        <v>9</v>
+      </c>
+      <c r="M85" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="N85" t="s">
+        <v>22</v>
+      </c>
+      <c r="O85" s="4">
+        <v>50.00</v>
+      </c>
+      <c r="P85" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q85" s="4">
+        <v>50.00</v>
+      </c>
+      <c r="R85" s="4">
+        <v>4.00</v>
+      </c>
+      <c r="S85" s="4">
+        <v>54.00</v>
+      </c>
+      <c r="T85" t="s">
+        <v>4</v>
+      </c>
+      <c r="U85" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="V85" s="4">
+        <v>50.00</v>
+      </c>
+      <c r="W85" s="3">
+        <v>1.000</v>
+      </c>
+      <c r="X85" s="4">
+        <v>50.00</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC85" s="2">
+        <v>45282</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG85" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
